--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1659094.918391307</v>
+        <v>1656759.807189328</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>16.54389930660771</v>
       </c>
       <c r="H2" t="n">
-        <v>219.1723583587652</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>70.89010232327543</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>122.6942204073862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>208.2474868886324</v>
       </c>
       <c r="H5" t="n">
-        <v>90.88891101394638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>144.8586974472229</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>357.478942436663</v>
+        <v>140.4615936850608</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.52274688849866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>142.7059665293332</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>67.43549003635178</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>108.5813113004298</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>108.3106907504111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2135,10 +2135,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>23.10998325716815</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016484</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.41770597126624</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>48.47457675531668</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703298</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703235</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3949,10 +3949,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1081.071510755571</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C2" t="n">
-        <v>1081.071510755571</v>
+        <v>141.276945881932</v>
       </c>
       <c r="D2" t="n">
-        <v>1081.071510755571</v>
+        <v>141.276945881932</v>
       </c>
       <c r="E2" t="n">
-        <v>695.2832581573271</v>
+        <v>141.276945881932</v>
       </c>
       <c r="F2" t="n">
-        <v>284.2973533677195</v>
+        <v>134.3314451327286</v>
       </c>
       <c r="G2" t="n">
-        <v>272.6330071324124</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1857.810682795505</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.671350819693</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1564.839956111593</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386098</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554974</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C5" t="n">
-        <v>565.7040184150858</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D5" t="n">
-        <v>565.7040184150858</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E5" t="n">
-        <v>565.7040184150858</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F5" t="n">
-        <v>154.7181136254782</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G5" t="n">
-        <v>143.0537673901712</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,13 +4565,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419619</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,22 +4647,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>551.6025748766949</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081667</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1490.124203461141</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032431</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C8" t="n">
-        <v>1624.638712032431</v>
+        <v>1703.012869240227</v>
       </c>
       <c r="D8" t="n">
-        <v>1266.373013425681</v>
+        <v>1344.747170633477</v>
       </c>
       <c r="E8" t="n">
-        <v>880.5847608274364</v>
+        <v>958.9589180352325</v>
       </c>
       <c r="F8" t="n">
-        <v>469.5988560378289</v>
+        <v>547.973013245625</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214137</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.50719300825</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
         <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732717</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732717</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424045</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>526.5658826424045</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>379.6759351444941</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993913</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058935</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>203.4947552706282</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1578.981115722978</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5771,16 +5771,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2423.619666148777</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>451.6888124356582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>451.6888124356582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>284.4927131505381</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>142.7808819927362</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="38">
@@ -7154,34 +7154,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.853600740068</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121611</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121611</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121611</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121611</v>
+        <v>344.917417812163</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038312</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797713</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138379</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703078</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7597,7 +7597,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7643,13 +7643,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>280.1079373569283</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.7511347056857</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.81817176293569</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>151.149163315743</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>43.26526345295354</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4141550350971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>32.79125956324885</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392193904</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194535</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194353</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.475169179</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="14">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
@@ -26353,7 +26353,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.9700081909</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756604</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810738.6792960828</v>
+        <v>-810738.6792960829</v>
       </c>
       <c r="C6" t="n">
         <v>304013.104279837</v>
       </c>
       <c r="D6" t="n">
-        <v>144591.834281945</v>
+        <v>144591.8342819453</v>
       </c>
       <c r="E6" t="n">
-        <v>88773.09781048492</v>
+        <v>88738.35988504929</v>
       </c>
       <c r="F6" t="n">
-        <v>414185.5596178404</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="G6" t="n">
-        <v>414185.5596178402</v>
+        <v>414150.8216924047</v>
       </c>
       <c r="H6" t="n">
-        <v>414185.55961784</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="I6" t="n">
-        <v>414185.5596178402</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="J6" t="n">
-        <v>246580.3818078577</v>
+        <v>246545.6438824219</v>
       </c>
       <c r="K6" t="n">
-        <v>414185.5596178404</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="L6" t="n">
-        <v>365891.5896096495</v>
+        <v>365856.8516842136</v>
       </c>
       <c r="M6" t="n">
-        <v>329130.5316823285</v>
+        <v>329095.7937568924</v>
       </c>
       <c r="N6" t="n">
-        <v>414185.5596178402</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="O6" t="n">
-        <v>414185.5596178403</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="P6" t="n">
-        <v>414185.55961784</v>
+        <v>414150.8216924046</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.0038034663463</v>
       </c>
       <c r="H2" t="n">
-        <v>81.84619420364015</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>123.772358038462</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>103.0154349816509</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>203.3002158843216</v>
       </c>
       <c r="H5" t="n">
-        <v>210.129641548459</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>49.80376291451452</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>53.44278321679047</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.30923329343864</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>-2.163473208342858e-13</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L15" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34787,16 +34787,16 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>615.5326193530514</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>316.3386309491705</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306628</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096319</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
